--- a/Lop9/DiemDanh.xlsx
+++ b/Lop9/DiemDanh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Học Sinh</t>
   </si>
@@ -28,6 +28,21 @@
   </si>
   <si>
     <t>Trà My</t>
+  </si>
+  <si>
+    <t>23/09/2021</t>
+  </si>
+  <si>
+    <t>26/09/2021</t>
+  </si>
+  <si>
+    <t>30/09/2021</t>
+  </si>
+  <si>
+    <t>07/10/2021</t>
+  </si>
+  <si>
+    <t>10/10/2021</t>
   </si>
 </sst>
 </file>
@@ -107,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -119,6 +134,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,35 +415,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
